--- a/summary/javaSummary.xlsx
+++ b/summary/javaSummary.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="145">
   <si>
     <t>一java基础说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -421,6 +421,182 @@
   </si>
   <si>
     <t>3、final类不能被继承</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口（抽象方法和常量值的定义的集合，本质上是一种特殊的抽象类，只包含常量和方法的定义，没有实现）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、接口中属性默认为(也只能为)public static final</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、接口中方法只能定义抽象方法，默认为也只能为public</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、可以继承其他的接口，并添加新的属性和方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、接口可多重实现，关键字Implements</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5、多个无关的类可以实现同一个接口，一个类可以实现多个无关的接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6、接口和类之间存在多态关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、异常类图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RuntimeException:运行时错误，可以处理也可以不处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩下的都必须处理，处理不了也必须抛出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a、Throwable:异常类的根类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b、Error：系统内部错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c、Exception:可以处理的错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、throw：抛出异常，java code执行过程中出现异常，生成一个异常类对象，封装了异常事件信息，并提交给了java运行时系统。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、catch：捕获异常，接收到异常的对象时，会寻找处理这一异常的代码并把当前异常对象交给其处理。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、try语句</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a、指定了一段代码，是一次捕获并处理例外的的范围。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b、执行中可能跑出一种或几种类型的异常对象，后面的catch语句分别对这些异常进行相应的处理。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c、没有例外产生，所有catch代码段略过不执行。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5、finally语句</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a、为异常处理提供统一出口，在控制流转其他部分以前，对程序的状态做统一管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b、无论try是否抛出例外，finally都要被执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6、异常的捕获和处理：应先抓小的，再抓大的，并列没有关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7、自定义异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8、重写异常方法：需抛出和原方法所抛出异常类型一致或不抛出异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、数组变量属于引用类型，数组可以看成对象，数组中每个元素相当于该对象成员变量（分配空间后，元素按成员变量规则隐式初始化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、java语言中声明数组时不能指定其长度，如 int a[5]是非法的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、动态初始化。数组的定义、分配空间和赋值分开进行。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、静态初始化，定义同时分配空间并赋值，如 int a[]={1,2,3}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5、数组元素的引用，分配空间后才可以引用元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6、二维数组：java中多维数组的声明和初始化应按从高维到低维进行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7、数组的拷贝：使用java.lang.system 中类静态方法   void arrayCopy()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常见类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String类：常见类方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Math类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>File类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enum类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>public File(String pathname):以pathname为路径创建File对象，如果pathname是相对路径，则默的当前路径在系统属性user.dir中存储</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>public File(String pathname,Stirng child):以parent为父路径，child为子路径创建File对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静态属性：String separator 存储了当前系统的路径分隔符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般在.class所在路径为上层路径创建文件，但如果打包了，是包的上层路径为目录创建文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础类型包装类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -754,10 +930,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L63"/>
+  <dimension ref="A1:L107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="D108" sqref="D108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1260,6 +1436,226 @@
         <v>100</v>
       </c>
     </row>
+    <row r="64" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D64" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F65" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F66" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F67" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F68" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F69" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F70" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D72" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F73" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F74" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F75" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G76" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G77" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D78" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D79" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D80" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F81" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F82" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F83" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D84" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F85" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F86" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D87" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D88" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D89" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D91" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D92" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D93" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D94" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D95" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D96" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D97" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D99" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D100" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D101" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E102" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E103" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E104" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E105" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D106" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D107" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
